--- a/biology/Médecine/Pierre_Sue/Pierre_Sue.xlsx
+++ b/biology/Médecine/Pierre_Sue/Pierre_Sue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Sue, né le 28 décembre 1739 à Paris et mort le 28 mars 1816 à Paris, est un médecin et chirurgien français. Il est le fils de Jean Sue (1699-1762), également chirurgien.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu maître en chirurgie en 1763, il succéda à son père dans la charge de chirurgien de la Ville de Paris. En 1767, il fut nommé professeur et démonstrateur à l'École pratique.
 Lorsque l'enseignement médical fut rétabli après la Révolution, Sue obtint en 1794 la place de bibliothécaire lors de l'institution de l'École de Santé de Paris (ultérieurement Faculté de médecine de Paris). La chaire de bibliographie lui fut confiée avec pour charge l'enseignement de la bibliographie médicale.
 En 1808, il passa à la chaire de médecine légale.
-Il occupe également la fonction de Président de l'école de médecine, au moins de 1809 à 1810[1],[2],[3],[4].
+Il occupe également la fonction de Président de l'école de médecine, au moins de 1809 à 1810.
 Il publia divers travaux de littérature médicale.
 Il a également rédigé des tables analytiques pour divers ouvrages, notamment l'édition de Buffon continuée par Sonnini ainsi qu'un mémoire historique, littéraire et critique sur la vie et les ouvrages tant imprimés que manuscrits de Jean Goulin (Éditions Paris, Blanchon, 1800).
 </t>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire du galvanisme ; et analyse des différens ouvrages publiés sur cette découverte, depuis son origine jusqu'à ce jour, 1802-1805 (Lire en ligne)
 Lettre à M. ***, professeur d'anatomie et de chirurgie dans l'université de ***, en réponse à une lettre anonyme insérée dans le Journal de Médecine du mois de juin, au sujet d'une prétendue invention de M. Bauve, maître en chirurgie de Paris, 1771
@@ -568,11 +584,11 @@
 Notice sur M. Louis, 1792
 Rapport sur un ouvrage intitulé : Mémoires de la Société médicale d'émulation, etc., fait à la Société de Médecine, le 7 floréal an VI.
 Éloge de Pierre-Isaac Poissonnier, prononcé à la séance publique de la Société de Médecine, le 22 brumaire an VII.
-Aperçu général, appuyé de quelques faits sur l'origine et le sujet de la médecine légale, lu à la cinquième séance publique de la Société de Médecine, le 22 pluviose an VIII[5].
-Mémoire historique, littéraire et critique sur la vie et les ouvrages tant imprimés que manuscrits de Jean Goulin, professeur d'histoire de la médecine à l'École de Médecine de Paris., an VIII[6].
-Mémoire sur l'état de la chirurgie à la Chine, suivi d'une correspondance à ce sujet avec un missionnaire de Pékin., an IX[7]
+Aperçu général, appuyé de quelques faits sur l'origine et le sujet de la médecine légale, lu à la cinquième séance publique de la Société de Médecine, le 22 pluviose an VIII.
+Mémoire historique, littéraire et critique sur la vie et les ouvrages tant imprimés que manuscrits de Jean Goulin, professeur d'histoire de la médecine à l'École de Médecine de Paris., an VIII.
+Mémoire sur l'état de la chirurgie à la Chine, suivi d'une correspondance à ce sujet avec un missionnaire de Pékin., an IX
 Commentaires littéraires sur quelques passages des lettres de Sénèque le philosophe, relatifs à la médecine.
-Éloge historique de Marie-François-Xavier Bichat, prononcé le 14 germinal an XI[8].
+Éloge historique de Marie-François-Xavier Bichat, prononcé le 14 germinal an XI.
 Observations, remarques et réflexions sur quelques maladies des os, 1803
 Notice sur quelques manuscrits de feu Bernard Peyrilhe.
 Notice et extrait raisonné d'un livre devenu si rare, qu'on n'en connaît que deux ou trois exemplaires, avec des notes historiques, littéraires et critiques, 1807
